--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -95,35 +95,13 @@
     <t>Soạn dựng</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">BẢNG TỔNG HỢP NHUẬN BÚT PHÁT THANH </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(CTV) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">THÁNG </t>
-    </r>
-  </si>
-  <si>
-    <t>12/2018</t>
+    <t>THÁNG 12/2018</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP NHUẬN BÚT PHÁT THANH</t>
+  </si>
+  <si>
+    <t>(CTV)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +112,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,15 +151,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,27 +251,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -584,10 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="R2" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,109 +577,110 @@
     <col min="4" max="15" width="4.28515625" customWidth="1"/>
     <col min="16" max="16" width="6.28515625" customWidth="1"/>
     <col min="17" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="17" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="O2" s="10"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -737,17 +717,17 @@
       <c r="O4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="8"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -793,6 +773,7 @@
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:A4"/>
@@ -803,7 +784,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
@@ -811,5 +791,6 @@
     <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>(CTV)</t>
+  </si>
+  <si>
+    <t>Trừ chỉ tiêu</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -229,16 +232,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,25 +286,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -563,10 +604,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R1:R1048576"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,188 +615,195 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="15" width="4.28515625" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="4" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="T3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S6" s="6" t="s">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S7" s="7" t="s">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -764,18 +812,19 @@
       <c r="L8" t="s">
         <v>20</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -785,10 +834,10 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -293,32 +293,47 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,10 +619,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="A5" sqref="A5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,43 +638,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
     </row>
     <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="9" t="s">
         <v>25</v>
       </c>
@@ -668,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="9"/>
-      <c r="P2" s="15"/>
+      <c r="P2" s="13"/>
       <c r="R2" s="7"/>
       <c r="S2" s="11"/>
       <c r="T2" s="7"/>
@@ -716,7 +731,7 @@
       <c r="R3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="16" t="s">
@@ -727,103 +742,127 @@
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="20"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
-      <c r="S4" s="18"/>
+      <c r="S4" s="22"/>
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="4"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T6" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T7" s="6" t="s">
-        <v>17</v>
+      <c r="T7" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="T8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -836,8 +875,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -95,13 +95,7 @@
     <t>Soạn dựng</t>
   </si>
   <si>
-    <t>THÁNG 12/2018</t>
-  </si>
-  <si>
     <t>BẢNG TỔNG HỢP NHUẬN BÚT PHÁT THANH</t>
-  </si>
-  <si>
-    <t>(CTV)</t>
   </si>
   <si>
     <t>Trừ chỉ tiêu</t>
@@ -263,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -277,64 +271,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -622,7 +611,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:S5"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,11 +622,11 @@
     <col min="4" max="16" width="4.28515625" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" customWidth="1"/>
     <col min="18" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="8" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -662,149 +651,146 @@
       <c r="T1" s="21"/>
     </row>
     <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="16" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="16"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -824,13 +810,15 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="10"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="4"/>
+      <c r="T6" s="25"/>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T7" s="5" t="s">
+    <row r="7" spans="1:20" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="23"/>
+      <c r="T7" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -858,10 +846,6 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A2:K2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:A4"/>
@@ -875,6 +859,10 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PV" sheetId="1" r:id="rId1"/>
+    <sheet name="CTV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -106,21 +107,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,7 +129,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +137,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -144,7 +145,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -255,16 +256,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -274,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -287,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,13 +297,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,13 +325,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,124 +642,124 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="16" width="4.25" customWidth="1"/>
-    <col min="17" max="17" width="6.25" customWidth="1"/>
-    <col min="18" max="18" width="6.375" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-    </row>
-    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+    </row>
+    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-    </row>
-    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="24" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
@@ -792,13 +796,13 @@
       <c r="O4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -822,10 +826,10 @@
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -844,18 +848,18 @@
       <c r="S6" s="4"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S7" s="16"/>
       <c r="T7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -869,11 +873,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:T1"/>
@@ -890,9 +895,274 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+    </row>
+    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="19"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="16"/>
+      <c r="T7" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -307,6 +307,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,9 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,28 +659,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -707,59 +707,59 @@
       <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="20" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
@@ -796,11 +796,11 @@
       <c r="O4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
       <c r="S4" s="26"/>
-      <c r="T4" s="24"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -826,10 +826,10 @@
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -878,6 +878,7 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:C6"/>
@@ -894,7 +895,6 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A2:T2"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -909,14 +909,14 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="16" width="4.28515625" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" customWidth="1"/>
     <col min="18" max="18" width="6.42578125" customWidth="1"/>
@@ -925,28 +925,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -973,59 +973,59 @@
       <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="20" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
@@ -1062,11 +1062,11 @@
       <c r="O4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
       <c r="S4" s="26"/>
-      <c r="T4" s="24"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1144,11 +1144,6 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
@@ -1161,6 +1156,11 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -307,6 +307,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -324,9 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,15 +642,15 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="16" width="4.28515625" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" customWidth="1"/>
     <col min="18" max="18" width="6.42578125" customWidth="1"/>
@@ -659,107 +659,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
@@ -796,13 +796,13 @@
       <c r="O4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="20"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -826,10 +826,10 @@
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -878,6 +878,7 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:T2"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="P3:P4"/>
@@ -894,7 +895,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -908,8 +908,8 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,107 +925,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
@@ -1062,13 +1062,13 @@
       <c r="O4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="20"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1144,6 +1144,11 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
@@ -1156,11 +1161,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,27 +127,59 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,75 +290,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,47 +675,59 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="22" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-    </row>
-    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -706,181 +751,179 @@
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
     </row>
-    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="9" t="s">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="24" t="s">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S7" s="16"/>
-      <c r="T7" s="17" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="21"/>
+      <c r="T7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T8" s="6" t="s">
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:20" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" s="17"/>
+      <c r="T9" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:T1"/>
@@ -895,6 +938,9 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -908,47 +954,59 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="22" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-    </row>
-    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
@@ -972,183 +1030,179 @@
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
     </row>
-    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19" t="s">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="24" t="s">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S7" s="16"/>
-      <c r="T7" s="17" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="21"/>
+      <c r="T7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T8" s="6" t="s">
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:20" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" s="17"/>
+      <c r="T9" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
@@ -1161,6 +1215,11 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -328,7 +328,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -340,6 +339,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,12 +358,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -675,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -698,113 +697,113 @@
     <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
     <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="22" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
@@ -841,11 +840,11 @@
       <c r="O4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="25"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -866,15 +865,15 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="19"/>
+      <c r="S5" s="18"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -890,11 +889,11 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="20"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S7" s="21"/>
+      <c r="S7" s="20"/>
       <c r="T7" s="13" t="s">
         <v>16</v>
       </c>
@@ -914,8 +913,7 @@
       <c r="L9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="16" t="s">
+      <c r="S9" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -924,6 +922,7 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:T1"/>
@@ -940,7 +939,6 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -954,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -977,154 +975,154 @@
     <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
     <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="22" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="18" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="25"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1145,15 +1143,15 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="19"/>
+      <c r="S5" s="18"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1169,11 +1167,11 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="20"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S7" s="21"/>
+      <c r="S7" s="20"/>
       <c r="T7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1193,8 +1191,7 @@
       <c r="L9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="16" t="s">
+      <c r="S9" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1203,6 +1200,11 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
@@ -1215,11 +1217,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Trừ chỉ tiêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -107,21 +110,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +291,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -331,14 +334,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,18 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,135 +678,135 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="21" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="22" t="s">
+      <c r="O3" s="23"/>
+      <c r="P3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
@@ -840,11 +843,291 @@
       <c r="O4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="26"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="23"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="20"/>
+      <c r="T7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="21" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+    </row>
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="23"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -870,10 +1153,10 @@
     </row>
     <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -892,285 +1175,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S7" s="20"/>
-      <c r="T7" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="S3:S4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="21" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-    </row>
-    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="26"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S7" s="20"/>
       <c r="T7" s="13" t="s">
         <v>16</v>
@@ -1219,6 +1224,6 @@
     <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -110,21 +110,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -291,9 +291,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -311,12 +311,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,14 +328,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -351,7 +344,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -360,8 +353,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,179 +688,179 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="21" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="26" t="s">
+      <c r="O3" s="18"/>
+      <c r="P3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="12" t="s">
+    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="23"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>25</v>
@@ -870,55 +881,55 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="18"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S7" s="20"/>
-      <c r="T7" s="13" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="15"/>
+      <c r="T7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -927,6 +938,7 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:A4"/>
@@ -943,7 +955,6 @@
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -957,179 +968,179 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="21" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="26" t="s">
+      <c r="O3" s="18"/>
+      <c r="P3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="17" t="s">
+    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="23"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1148,55 +1159,55 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="18"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S7" s="20"/>
-      <c r="T7" s="13" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="15"/>
+      <c r="T7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1205,11 +1216,6 @@
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
@@ -1222,6 +1228,11 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -108,10 +103,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -291,7 +286,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -328,51 +323,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,136 +683,136 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="16" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.33203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-    </row>
-    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
@@ -854,13 +849,13 @@
       <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>25</v>
@@ -884,42 +879,42 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S7" s="15"/>
       <c r="T7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -933,11 +928,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A1:T1"/>
@@ -952,9 +950,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -968,136 +963,136 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="16" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.33203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-    </row>
-    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1134,13 +1129,13 @@
       <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1162,42 +1157,42 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S7" s="15"/>
       <c r="T7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1211,11 +1206,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
@@ -1228,11 +1228,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Trích Ban Biên tập nội dung chương trình hàng ngày. Tổng cộng: 273,30 điểm</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -335,44 +341,62 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -686,10 +710,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S5" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -711,113 +735,113 @@
     <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
     <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20" style="16" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
@@ -854,13 +878,13 @@
       <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="29"/>
+    </row>
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>25</v>
@@ -884,62 +908,130 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S7" s="15"/>
-      <c r="T7" s="9" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="15"/>
+      <c r="T10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T8" s="10" t="s">
+    <row r="11" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" ht="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="21">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -954,7 +1046,13 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="R8:S8"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -969,7 +1067,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -991,113 +1089,113 @@
     <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
     <col min="17" max="18" width="7.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="16" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1134,13 +1232,13 @@
       <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="29"/>
+    </row>
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1162,29 +1260,29 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="23" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S7" s="15"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -98,15 +103,21 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Trích Ban Biên tập nội dung chương trình hàng ngày. Tổng cộng: 273,30 điểm</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -286,9 +297,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -323,13 +334,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -342,13 +353,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,7 +380,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,138 +710,138 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-    </row>
-    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
@@ -849,13 +878,13 @@
       <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-    </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>25</v>
@@ -879,12 +908,12 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -903,41 +932,110 @@
       <c r="S6" s="21"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S7" s="15"/>
-      <c r="T7" s="9" t="s">
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="15"/>
+      <c r="T10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="T8" s="10" t="s">
+    <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="12" t="s">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="21">
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -950,6 +1048,11 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -967,132 +1070,132 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-    </row>
-    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1129,13 +1232,13 @@
       <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-    </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1157,12 +1260,12 @@
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -1181,18 +1284,18 @@
       <c r="S6" s="21"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S7" s="15"/>
       <c r="T7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1206,16 +1309,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
@@ -1228,6 +1326,11 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -359,6 +359,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,26 +389,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -722,126 +722,127 @@
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="2" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="16" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
@@ -878,11 +879,11 @@
       <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="25"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -910,10 +911,10 @@
     </row>
     <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -933,74 +934,74 @@
       <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="30"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S10" s="15"/>
@@ -1067,7 +1068,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1076,126 +1077,127 @@
     <col min="2" max="2" width="30" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="2" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="16" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
@@ -1232,11 +1234,11 @@
       <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="25"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1262,10 +1264,10 @@
     </row>
     <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -331,9 +331,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -371,15 +368,27 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,15 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,10 +710,362 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="15" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="30"/>
+      <c r="P3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="14"/>
+      <c r="T10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T11" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -736,156 +1088,156 @@
     <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="15" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
-    </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>25</v>
@@ -906,115 +1258,115 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="14"/>
+      <c r="S5" s="13"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
-    </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="23"/>
-    </row>
-    <row r="8" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+    </row>
+    <row r="7" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="22"/>
-    </row>
-    <row r="9" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="23"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S10" s="15"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="14"/>
       <c r="T10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -1028,294 +1380,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="A9:Q9"/>
     <mergeCell ref="R9:S9"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="16" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-    </row>
-    <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
-    </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S7" s="15"/>
-      <c r="T7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="17">
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
@@ -1328,11 +1403,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ATV_Allowance/Templates/TemplatePT.xlsx
+++ b/ATV_Allowance/Templates/TemplatePT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>Đài Phát thanh - Truyền hình An Giang</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>(Thành tiền bằng chữ: Không đồng)</t>
   </si>
 </sst>
 </file>
@@ -371,6 +374,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,24 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,107 +745,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="33" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
@@ -879,11 +882,11 @@
       <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -911,10 +914,10 @@
     </row>
     <row r="6" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -956,51 +959,51 @@
       <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
       <c r="T9" s="22"/>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,11 +1033,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="A8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="A9:Q9"/>
@@ -1051,6 +1049,11 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1062,10 +1065,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1094,107 +1097,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="33" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
@@ -1231,11 +1234,11 @@
       <c r="O4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1263,10 +1266,10 @@
     </row>
     <row r="6" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -1285,113 +1288,33 @@
       <c r="S6" s="20"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="22"/>
-    </row>
-    <row r="8" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="1:20" s="16" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="22"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S10" s="14"/>
-      <c r="T10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T11" s="10" t="s">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="14"/>
+      <c r="T7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
+  <mergeCells count="17">
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -1403,6 +1326,12 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
